--- a/Application Open/Riddles_without_Answer.xlsx
+++ b/Application Open/Riddles_without_Answer.xlsx
@@ -1,60 +1,1051 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="122211"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:bookViews>
+    <x:workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="122211"/>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+  <x:si>
+    <x:t>Riddles</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஓடுவான், வருவான்; ஒற்றைக் காலில் நிற்பான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>பச்சைப் பெட்டிக்குள் வெள்ளை முத்து. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கூரை வீட்டைப் பிரித்தால் ஓட்டு வீடு. ஓட்டு வீட்டுக்குள்ளே வெள்ளை மாளிகை. வெள்ளை மாளிகையின் நடுவே ஒரு குளம். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>எதைக் கொடுத்தாலும் சாப்பிடுவேன். தண்ணீர் குடித்தால் இறந்துவிடுவேன். நான் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஊர் முழுவதும் சுற்றுவேன். வீட்டுக்குள் நுழைய மாட்டேன். நான் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>மஞ்சள் குருவி ஊஞ்சலாடுது. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆடி ஆடி நடந்தான், அமைதியாக அதிர வைத்தான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>உருவத்தில் சிறியவன் உழைப்பில் பெரியவன் அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அடித்தாலும், உதைத்தாலும் அழ மாட்டான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>மழையோடு வருகின்ற வெள்ளை புறாவை வெட்டினால் ஒரு சொட்டு இரத்தம் வராது அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இருப்பது இரண்டு கால் ஓடுவது குதிரை வேகம் இறக்கை உண்டு பறக்காது அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தலை இல்லாதவன் தலையை சுமப்பவன் அவன் யார் ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>பற்கள் இருக்கும் கடிக்கமாட்டான் அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஐந்து வீட்டிற்க்கு ஒரு முற்றம் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>கண்ணால் பார்க்கலாம் கையால் பிடிக்கமுடியாது அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>காற்றைக் குடித்து காற்றில் பறப்பான் அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>இலையுண்டு கிளையில்லை, பூ உண்டு மணமில்லை, காய் உண்டு விதையில்லை, பட்டை உண்டு கட்டை இல்லை, கன்று உண்டு பசு இல்லை அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">எவ்வளவு முயன்றாலும் அவனை கடிக்க முடியாது. அவன் இல்லாமல் உணவே இல்லை. அவன் யார் ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பூ பூக்கும். காய் காய்க்கும். ஆனால் பழம் பழுக்காது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இளமையில் பச்சை, முதுமையில் சிகப்பு, குணத்திலே எரிப்பு. விடை தெரியுமா? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தாய் குப்பையிலே, மகள் சந்தையிலே அவை என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அடிக்காமல், திட்டாமல் கண்ணீரை வரவழைப்பாள் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கண்ணீர் விட்டு வெளிச்சம் தருவாள் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நீண்ட உடலிருக்கும் தூணும் அல்ல, உடலில் சட்டை இருக்கும் ஆனால் உயிர் இல்லை, துயிலில் சுகம் இருக்கும் மெத்தை அல்ல அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>இதயம் போல் துடிப்பிருக்கும், இரவு பகல் விழித்திருக்கும். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>வெயிலில் மலரும், காற்றில் உலரும். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>போகும் இடமெல்லாம் கோடு கிழித்திடுவான் – அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>இருந்தாலும், இறந்தாலும், பறந்தாலும் இறக்கை மடக்காத பட்சி – அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>சிறு தூசி விழுந்ததும் குளமே கலங்கியது அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அச்சு இல்லாத சக்கரம்: அழகு காட்டும் சக்கரம். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஓடியாடித் திரியும் – உடலைத் தேடிக் குத்தும் – அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கனியிலே சிறந்த கனி, என்றுமே திகட்டாத கனி… அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கடுகு மடிக்க இலை இல்லை, யானை படுக்க இடமுண்டு- அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நீரிலே பிறப்பான்.. வெயிலிலே வளர்வான்.. நீரிலே இறப்பான்..! அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>செய்வதைச் செய்யும் குரங்கும் அல்ல; சிங்காரிக்க உதவும் சீப்பும் அல்ல. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>அக்கா வீட்டுக்குத் தங்கை போவாள்.. ஆனால், தங்கை வீட்டுக்கு அக்கா வரமுடியாது! அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இவன் வாலுக்கு வையகமே நடுங்கும் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பிடுங்கலாம் நடமுடியாது அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">உடம்பில்லா ஒருவன் பத்து சட்டை அணீந்திருப்பான்? அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கசக்கிப் பிழிந்தாலும் கடைசிவரை இனிப்பான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>மரத்தின் மேலே தொங்குவது மலைப் பாம்பல்ல அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>உடம்பு முழுவதும் முள். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கையும் இல்லை, காலும் இல்லை. ஓடிக்கொண்டே இருப்பேன். நான் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>வெள்ளை மணலுக்குள்ளே தங்கம். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>பச்சைப் பேருந்துக்குள் சிவப்பு பயணிகள். அவர்கள் அணியும் தொப்பி கறுப்பு. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>உன்னை எங்கு சென்றாலும் தொடர்ந்து வருவான். அது யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இடி இடிக்கும், மின்னல் மின்னும், மழை பெய்யாது- அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆலமரம் தூங்க அவனியெல்லாம் தூங்க, சீரங்கம் தூங்க திருப்பாற்கடல் தூங்க, ஒருவன் மட்டும் தூங்கவில்லை அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கொதிக்கும் கிணற்றில் குதித்துக் குண்டாகி வருவான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>கருப்பு நிறமுடையவன், கபடம் அதிகம் கொண்டவன், கூவி அழைத்தால் வந்திடுவான், கூட்டம் சேர்த்தும் வந்திடுவான் – அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பச்சை பொட்டிக்குள் வெள்ளை முத்துகள் ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கடைசி வார்த்தையில் மானம் உண்டு, முதல் வார்த்தையின் மென்மைக்காக இறந்தன பூச்சிகள். காஞ்சியில் நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">படபடக்கும், பளபளக்கும், பண்டிகை வந்தால் வானில் பறக்கும். அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஓர் அரண்மனையில் முப்பத்திரெண்டு காவலர்கள் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>உணவை எடுப்பான் ஆனால் உண்ணமாட்டான் அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>காலையில் வந்த விருந்தாளியை மாலையில் காணவில்லை. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கந்தல் துணி கட்டியவன், முத்துப் பிள்ளைகளைப் பெற்று மகிழ்ந்தான். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கடல் நீரில் வளர்ந்து , மழை நீரில் மடிவது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஓயாமல் இரையும் இயந்திரமல்ல, உருண்டோடிவரும் பந்து அல்ல அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காலையிலும் மாலையிலும் நெட்டை மதியம் குட்டை நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இரு கொம்புகள் உண்டு மாடு அல்ல, வேகமாய் ஓடும் மான் அல்ல, கால்கள் உண்டு மனிதனல்ல. – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஓடெடுப்பான் பிச்சை ஒரு நாளும் கண்டறியான் காடுறைவான் தீர்த்தக் கரைசேர்வான்- தேட நடக்குங்கால் நாலுண்டு நல்தலை ஒன்றுண்டு! படுக்கும்போது அவையில்லை பார்! அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>வெள்ளை ஆடை உடுத்திய மஞ்சள் மகாராணி? அவள் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">எங்க அக்கா சிவப்பு, குளித்தால் கருப்பு அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">உங்களுக்கு சொந்தமானத ஒன்று ஆனால் உங்களை விட மற்றவர்களே அதிகம் உபயோகிப்பார்கள்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>யாரும் செய்யாத கதவு தானே திறக்கும் தானே மூடும். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வாயிலே தோன்றி வாயிலே மறையும் பூ. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வீட்டில் வளரும் என்னை திருடனுக்கு பிடிக்காது அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இலையுண்டு கிளையில்லை,பூ உண்டு மணமில்லை,காய் உண்டு விதையில்லை,பட்டை உண்டு கட்டை இல்லை,கன்று உண்டு பசு இல்லை அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வெளியே உள்ளதை எறிந்து உள்ளே உள்ளதை சமைத்தான். பின் வெளியே உள்ளதை சாப்பிட்டு விட்டு உள்ளே உள்ளதை எறிந்தான் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இவனும் ஒரு பேப்பர் தான்; ஆனால், மதிப்போடு இருப்பான். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>டாக்டர் வந்தாரு, ஊசி போட்டாரு, காசு வாங்காமல் போனாரு.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கன்று நிற்க கயிறு மேயுது அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>எப்போதும் மழையில் நனைவான் ஆனால் ஜுரம் வராது. எப்போதும் வெயிலில் காய்வான் ஆனால் ஏதும் ஆகாது. அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தொடாமல் அழுவான், தொட்டால் பேசுவான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பெட்டியைத் திறந்தால் பூட்ட முடியாது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தன் மேனி முழுவதும் கண்ணுடையாள் தன்னிடம் சிக்கியபேரைச் சீரழிப்பாள் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>படபடக்கும்,பளபளக்கும் மனதுக்குள் இடம் பிடிக்கும் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">உயிரில்லாதவனுக்கு உடம்பெல்லாம் நரம்பு, அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">மாமா போட்ட பந்தல் மறுபடி பிரிச்சா கந்தல் அது என்ன? சிலந்தி </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கீழேயும் மேலேயும் மண்; நடுவிலே அழகான பெண். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">சொன்ன நேரத்துக்கு தொண்டை கிழிய கத்துவான். அவன் யார் ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>உயிர் இல்லாத நீதிபதியிடம் ஒழுங்கான நியாயம்- அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பூவோடு பிறந்து; நாவோடு கலந்து விருந்தாவான் மருந்தாவான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நூல் நூற்கும் நெசவாளிக்கு கட்டிக்கொள்ள துணியில்லை அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>உடம்பெல்லாம் சிவப்பு, அதன் குடுமி பச்சை அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஒட்டுத் திண்ணையில் பட்டுப் பாவாடை அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>தலைக்குள் கண் வைத்திருப்பவன் இவன் மட்டும்தான் அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>செய்தி வரும் பின்னே, மணியோசை வரும் முன்னே. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>வாயிலிருந்து நூல் போடுவான்; மந்திரவாதியும் இல்லை, கிளைக்குக் கிளை தாவுவான்; குரங்கும்</x:t>
+  </x:si>
+  <x:si>
+    <x:t>இல்லை, வலைவிரித்துப் பதுங்கியிருப்பான்; வேடனும் இல்லை – அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">உயிர் இல்லாத நீதிபதியிடம் ஒழுங்கான நியாயம்- அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>உடம்பெல்லாம் சிவப்பு, அதன் குடுமி பச்சை அது என்ன? தக்காளி</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஒட்டுத் திண்ணையில் பட்டுப் பாவாடை அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தலைக்குள் கண் வைத்திருப்பவன் இவன் மட்டும்தான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">செய்தி வரும் பின்னே, மணியோசை வரும் முன்னே. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>வாயிலிருந்து நூல் போடுவான்; மந்திரவாதியும் இல்லை, கிளைக்குக் கிளை தாவுவான்; குரங்கும் இல்லை, வலைவிரித்துப் பதுங்கியிருப்பான்; வேடனும் இல்லை – அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>பா‌ர்‌க்க‌த்தா‌ன் கறுப்பு; ஆனா‌ல் உள்ளமோ சிவப்பு. நம‌க்கு‌த் தருவதோ சுறுசுறு‌ப்பு அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பல் துவக்ககாதவனுக்கு உடம்பு எல்லாம் பற்கள்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கடலிலே கலந்து, கரையிலே பிரிந்து, தெருவிலே திரியும் பூ எது? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வால் நீண்ட குருவிக்கு வாயுண்டு. வயிறில்லை. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>காதை திருகினால் பாட்டு பாடுவான்? அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>நடுவழிய ஓய்வுக்காம், கடையிரண்டில் ஏதுமில்லை சொல், மூன்றெழுத்தில் உடுத்தலாம், மொத்தத்தில் பெண்கள் விருப்பம், அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>நாளெல்லாம் நடந்தாலும் நாற்பதடி செல்லாது அந்த நாயகனுக்கோ உடல் மேல் கவசம் அது என்ன? நத்தை</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நீளவால் குதிரையின் வால் ஓடஓடக் குறையும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>வீட்டுக்கு வந்த தொந்தியப்பன் தினமும் கரைகிறான். அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>வீட்டுக்கு வந்த விருந்தாளியை வரவேற்க ஆளில்லை. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">மரத்துக்கு மரம் தாவுவான் குரங்கல்ல, பட்டை போட்டிருப்பான் சாமி அல்ல, அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நீரிலும் வாழ்வேன், நிலத்திலும் வாழ்வேன். நீண்ட ஆயுள் உடைய எனக்கு இறைவன் கொடுத்த கவசமும் இருக்கு. நான் யார் ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>தாய் குப்பையிலே, மகள் சந்தையிலே அவை என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பூ பூக்கும். காய் காய்க்கும். ஆனால் பழம் பழக்காது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>கையை வெட்டுவார்; கழுத்தை வெட்டுவார். ஆனாலும் நல்லவர். யார் அவர்? தையல்காரர்</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வயதான பலருக்கு புதிதாக ஒரு கை அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>இளமையில் பச்சை, முதுமையில் சிகப்பு, குணத்திலே எரிப்பு. விடை தெரியுமா?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நான்கு கால்கள் உள்ளவன், இரண்டு கைகள் உள்ளவன், உட்கார்ந்து கொண்டிருப்பான், உட்கார இடம் கொடுப்பான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">சட்டையைக் கழற்றினால் சத்துணவு அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஒரு குகை, 32 வீரர்கள் , ஒரு நாகம் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கையில்லாமல் நீந்துவான்; கால் இல்லாமல் ஓடுவான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">முட்டையிடும், குஞ்சு பொரிக்காது. கூட்டில் குடியிருக்கும், கூடு கட்டத் தெரியாது. குரலில் இனிமையுண்டு, சங்கீதம் தெரியாது! – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அழகான பெண்ணுக்கு அதிசயமான வியாதி, பாதிநாள் குறைவாள், பாதிநாள் வளர்வாள் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பார்க்க அழகு பாம்புக்கு எதிரி அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அக்கா விதைத்த முத்து, அள்ள முடியாத முத்து, அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆயிரம் பேர் அணி வகுத்தாலும் ஆரவாரம் இராது- அவர்கள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">குண்டுச்சட்டியில குதிரை ஓட்டறான். </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அடிக்காமல்,திட்டாமல் கண்ணீரை வரவழைப்பாள் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பாலிலே புழு நெளியுது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வளைந்து நெளிந்து செல்பவள் வழியெங்கும் தாகம் தீர்ப்பாள் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">மேலிலும் துவாரம், கீழிழும் துவாரம், வலதிலும் துவாரம், இடதிலும் துவாரம், உள்ளிலும் துவாரம் வெளியிலும் துவாரம் இருந்தும் நீரை என்னுள் சேமித்து வைப்பேன், நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆழக் குழி தோண்டி அதிலே ஒரு முட்டையிட்டு அண்ணாந்து பார்த்தால் தொண்ணூறு முட்டை அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">8. சங்கீதம் பாடுபவனுக்கு சாப்பாடு இரத்தம் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">9. மழையில் பிறந்து வெயிலில் காயுது? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அடித்தாலும், உதைத்தாலும் அவன் அழ மாட்டான், அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>வட்ட வட்ட நிலவில் வரைஞ்சிருக்கு; எழுதியிருக்கு. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஓடையில கருப்பு மீனு துள்ளி விளையாடுது அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>பூ பூப்பது கண்ணுக்குத் தெரியும். காய் காய்ப்பது கண்ணுக்குத் தெரியாது. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பட்டுப்பை நிறைய பவுண் காசு அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>இருந்த இடத்தில் நகர்ந்தபடி இரவும் பகலும் செல்வான். அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>உடம்பெல்லாம் பல் கொண்ட ஒருத்திக்கு கடிக்க தெரியாது?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காலில் தண்ணீர் குடிப்பான், தலையில் முட்டையிடுவான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>சலசலவென சத்தம் போடுவான், சமயத்தில் தாகம் தீர்ப்பான். அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கல்லில் காய்க்கும்பூ தண்ணீரில் மலரும்பூ, அது என்ன பூ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காற்றைக் குடித்து காற்றில் பறப்பான், அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நடந்தவன் நின்றான் கத்தியை எடுத்து தலையைச் சீவினேன் மறுபடியும் நடந்தான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">எத்தனை தரம் சுற்றினாலும் தலை சுற்றாது, அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வெள்ளை ராஜாவுக்கு கறுப்பு உடை அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">முத்துக் கோட்டையிலே மகாராணி சிறைபட்டிருக்கிறாள். அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>கூரை வீட்டைப் பிரிச்சா ஓட்டுவீடு! ஓட்டு வீட்டுக்குள்ள வெள்ளை மாளிகை!வெள்ளை மாளிகைக்கு நடுவில் குளம்!அது என்ன ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பேச்சுக் கேட்குது பேசுபவர் தெரியவில்லை. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கந்தல் துணிக்காரி முத்துப் பிள்ளைகள் பெற்றாள் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வடிவழகு மாப்பிள்ளை வயிற்றால் நடக்கிறார். அவர் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">உடல் சிவப்பு, வாய் அகலம், உணவு காகிதம்- நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இது ஒரு பூ. முதற்பகுதி ஆதவனின் மறுபெயர்; பிற்பகுதி தேசத் தந்தையை குறிக்கும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பச்சை நிற அழகிக்கு உதட்டுச் சாயம் பூசாமலே சிவந்தவாய் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இரவு வீட்டிற்கு வருவான், இரவு முழுவதும் இருப்பான் காலையில் சொல்லாமல் கொள்ளாமல் போய்விட்டிருப்பான்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஓடையில் ஓடாத நீர், ஒருவரும் குடிக்காத நீர். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அம்மா படுத்திருக்க மகள் ஓடித்திரிவாள் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஒரு வீட்டுக்கு இரண்டு வாசல்படி. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஊரெல்லாமல் ஒரே விளக்கு. அதற்கு ஒரு நாள் ஒய்வு அது ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">உடம்பெல்லாம் தங்கநிறம், தலையில் பச்சை கிரீடம் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">குண்டுச் சட்டியில் கெண்டை மீன்.அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>நன்றிக்கு வால் கோபத்துக்கு வாய் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பூ கொட்ட கொட்ட ஒன்றையும் தனியே பொறுக்க முடியவில்லை? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நீண்ட உடம்புக்காரன், நெடுந்தூரப் பயணக்காரன்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>எடுக்க எடுக்க வளரும். எண்ணெயைக் கண்டால் படிந்துவிடும். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அரிவாளால் வெட்டி வெட்டி அடுப்பிலே வெச்சாலும் மூச்சே விட மாட்டான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தண்ணியில்லாத காட்டிலே அலைந்து தவிக்கும் அழகி. அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஆகாரமாக எதையும் தந்தால் சாப்பிடுவேன், ஆனால் நீரை குடிக்க தந்தால் இறந்து விடுவேன், நான் யார்? நெருப்பு</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஒன்று போனால் மற்றொன்றும் வாழாது?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஊரெல்லாம் சுத்துவான், ஆனால் வீட்டிற்குள் வரமாட்டான். </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கருப்பர்கள் மாநாடு போட்ட இடத்தில் கண்ணீர் பிரவாகம். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கூட்டுக்குள் குடியிருக்கும் குருவி அல்ல; கொலை செய்யும்; பாயும்; அது வீரனுமல்ல. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆடும் வரை ஆட்டம் , ஆடிய பின் ஓட்டம் அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஊசி நுழையாத கிணற்றிலே ஒரு படி தண்ணீர்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பாலாற்றின் நடுவே கறுப்பு மீன் தெரியுது அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">முதலெழுத்து தமிழின் அடுத்த எழுத்து கடை மூன்று சேர்ந்தால் ஒரு எண்ணிக்கை மொத்தத்தில் இது வருமுன் எச்சரிக்கை தேவை? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">மண்ணுகுளே கிடப்பான் மங்களகரமானவன் அவன் யார் ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>நிலத்தில் முளைக்காத செடி நிமிர்ந்து நிற்காத செடி அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">குண்டன் குழியில் விழுவான், குச்சியப்பன் தூக்கி விடுவான் – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>எழுதி எழுதியே தேய்ஞ்சு போனான். அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>பச்சைபெட்டிக்குள் வெள்ளை முத்துக்கள். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நீண்ட உடலிருக்கும் தூணும் அல்ல ,உடலில் சட்டை இருக்கும் ஆனால் உயிர் இல்லை,துயிலில் சுகம் இருக்கும் மெத்தை அல்ல அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">எட்டுக்கால் ஊன்றி இருகால் படமெடுக்க வட்டக் குடைபிடித்து வாறாராம் வன்னியப்பு அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஓய்வு எடுக்காமல் இயங்கும். ஓய்வு எடுத்துவிட்டால் மறுபடியும் இயங்காது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>நான் இருந்ததில்லைஆனாலும் இருப்பவனாக இருப்பேன். என்னை யாரும் பார்த்ததில்லை பார்க்கும் முன் பழசாயிருப்பேன். என்னை நம்பியே இந்த உலகமும் ,மக்களும் நல்லது நடக்குமென எண்ணுகிறார்கள் நான் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கிட்ட இருக்கும் பட்டணம்; எட்டித்தான் பார்க்க முடியவிலை. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கோவிலைச் சுற்றிக் கருப்பு; கோவிலுக்குள்ளே வெளுப்பு. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>வெள்ளை ஆளுக்கு கறுப்புத் தலைப்பாகை. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அரைசாண் ராணிக்கு வயிற்றில் ஆயிரம் முத்துகள். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அழுவேன்,சிரிப்பேன் அனைத்தும் செய்வேன் நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">முதுகிலே சுமை தூக்கி முனகாமல் அசைந்து வரும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அம்மா போடும் வட்டம், பளபளக்கும் வட்டம், சுவையைக் கூட்டும் வட்டம். சுட்டுத் தின்ன இஸ்டம். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>தொப்பொன்று விழுந்தான் தொப்பி கழன்றான் அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. முயல் புகாத காடு எது? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">உயரத்தில் இருப்பிடம்.தாகம் தீர்ப்பதில் தனியிடம் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தலையைச் சீவினால் தாளில் நடப்பான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>கண்டு பிடித்தவனும் வைத்திருக்கவில்லை, வாங்கியவனும் உபயோகிக்கவில்லை, உபயோகிப்பவனுக்கு அதனை பற்றி எதுவும் தெரியாது அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>மழை காலத்தில் குடை பிடிப்பான், மனிதனல்ல. அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஒரு குற்றத்தை செய்ய முயற்சித்தால் தண்டனை உண்டு, ஆனால் குற்றத்தை செய்தால் தண்டிக்க முடியாது, அக் குற்றம் என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>எப்போதும் காதருகில் ரகசியம் பேசிக் கொண்டிருப்பவள், அவள் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஓவென்று உயர்ந்த மலை, நடுவே உடன் பிறப்பு இருவர் ! ஒருவரை மற்றவர் பார்ப்பதுமில்லை; பேசுவதும் இல்லை. அவர்கள் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>மீன் பிடிக்கத் தெரியாதாம் ஆனால் வலை பின்னுவானாம் அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>தொட்டுப் பார்க்கலாம் எட்டிப் பார்க்கமுடியாது அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>வீட்டிலிருப்பான் காவலாலி, வெளியில் சுற்றுவான் அவன் கூட்டாளி, அவர்கள் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கொம்பு நிறைய கம்பு அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காட்டிலே பச்சை; கடையிலே கறுப்பு; வீட்டிலே சிவப்பு. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">என்னைத் தெரியாத போது தெரிந்து கொள்ளும் ஆவல்.தெரிந்த பிறகு பகிர்ந்து கொள்ளும் ஆசை. நான் மறைக்கப்பட வேண்டியவன். நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நடக்கவும் மாட்டேன், நகராமல் இருக்கவும் மாட்டேன் நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">மழையோடு வருகின்ற மஞ்சள் புறாவை வெட்டினால் ஒரு சொட்டு இரத்தம் வராது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நடந்தவன் நின்றான். கத்தியை எடுத்து தலையைச் சீவினேன். மறுபடி நடந்தான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>விரல் இல்லாமலே ஒரு கை. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>வெள்ளத்தில் போகாது, வெந்தணலில் வேகாது. கொள்ளையடிக்க முடியாது, கொடுத்தாலும் குறையாது. அது என்ன? கல்வி</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அம்மா பின்னிய நூலை அவிழ்த்தால் போச்சு. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தண்ணீரில் மிதக்குது கட்டழகிய வீடுகள் -அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தொட்டால் மணக்கும், சுவைத்தால் புளிக்கும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">இதயம் போல் துடிப்பிருக்கும், இரவு பகல் விழித்திருக்கும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>உணவு கொடுத்தால் வளரும்; நீர் கொடுத்தால் அழியும். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஊசி போல் இருப்பான், ஊரையே எரிப்பான். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கத்தி போல் இலை இருக்கும் கவரிமான் பூ பூக்கும் தின்ன பழம் கொடுக்கும் தின்னாத காய் கொடுக்கும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">எண்ணெய் வேண்டா விளக்கு; எடுப்பான் கை விளக்கு. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அத்துவான காட்டிலே பச்சைப்பாம்பு தொங்குது – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">மரத்திற்கு மேலே பழம், பழத்திற்கு மேலே மரம் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஊருக்கெல்லாம் ஓய்வு, உழைப்பவர்க்கும் ஓய்வு; இவனுக்கு மட்டும் ஓய்வில்லை; இரவும் பகலும் ஓட்டந்தான். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">சட்டையைக் கழற்றியதும் சடக்கென்று உள்ளே விழும் – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அச்சு இல்லாத சக்கரம், அழகு காட்டும் சக்கரம். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>வானத்தில் பறக்கும் பறவை இது, ஊரையே சுமக்கும் பறவை இது அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஒட்டியவன் ஒருத்தன், பிரித்தவன் இன்னொருவன். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">உருவத்தில் சிறியவன். உழைப்பில் பெரியவன். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நான் சூரியனைக் கடந்து சென்றால் கூட எனக்கு நிழல் ஏற்படாது. நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வெயிலில் மலரும், காற்றில் உலரும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காற்று இல்லாத கண்ணாடிக் கூண்டில் மஞ்சக் கோழி மயங்கி கிடக்குது அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>காலையில் ஊதும் சங்கு, கறி சமைக்க உதவும் சங்கு அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அள்ளவும் முடியாது, கிள்ளவும் முடியாது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">குண்டு குள்ளனுக்கு குடுமி நிமிர்ந்தே இருக்கும் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அந்தரத்தில் தொங்குவது சொம்பும் தண்ணீரும் – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">எட்டாத ராணியாம் இரவில் வருவாள், பகலில் மறைவாள். அது யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆள் இறங்காத குளத்தில் ஆடி இறங்கி கூத்தாடுது. அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கண்ணில் தென்படுவான், கையில் பிடிபட மாட்டான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அடித்து நொறுக்கி அணலில் போட்டால் ஆவியாகத் தோன்றி அழகாய் மணக்கும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தலை இல்லாதவன் தலையை சுமப்பவன். அவன் யார் ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நாலு மூளைக்கிணறு, நாகரத்தினக்கிணறு, எட்டிப் பார்த்தால் சொட்டுத தண்ணீர் இல்லை அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வாலால் நீர் குடிக்கும்,வயால் பூச்சொரியும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அடிமேல் அடி வாங்கி அனைவரையும் சொக்க வைக்கும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>கை பட்டால் சிணுங்கும் கன்னிப் பெண், கூச்சல் போட்டு கதவை திறக்க வைப்பவள் அவள் யார்? கா‌லி‌ங்பெ‌ல்</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பகலிலே வெறுங்காடு, இரவெல்லாம் பூக்காடு. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஓட்டம் நின்றால் போதும் ஆட்டம் நின்று போகும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கறுப்புக் காகம் ஓடிப்போச்சு, வெள்ளைக் காகம் நிற்குது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">மணம் இல்லாத மல்லிகை மாலையில் மலரும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>காலில்லா பந்தலைக் காணக் காண சந்தோஷம் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>உரசினால் உயிரே மாய்த்துக் கொள்ளும் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஆறு எழுத்துள்ள ஓர் உலோகப் பெயர். அதன் கடை மூன்று எழுத்துகள் சேர்ந்தால் ஒரு கொடிய பிராணி. அது என்ன? துத்தநாகம்</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வந்தும் கெடுக்கும், வராமலும் கெடுக்கும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">மண்ணுக்குள் இருக்கும், மங்கைக்கு அழகு தரும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>காளைக்குக் கழுத்து மட்டும் தண்ணீர் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஏரியில் இல்லாத நீர்,தாகத்திற்கு உதவாத நீர், தண்ணீர் அல்ல அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“நான் வெட்டுப்பட்டால், வெட்டியவனை அழ வைப்பேன் நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>தண்ணீரில் பிறப்பான்; தண்ணீரில் இறப்பான். அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>சின்னப்பயல் உரசினால் சீறிப் பாய்வான் – அது என்ன? தீக்குச்சி</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“நடலாம், பிடுங்க முடியாது அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆயிரம் பேர் அணிவகுத்தாலும் ஒரு தூசி கிளம்பாது. அவை யாவை? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஏற்றி வைத்து அணைத்தால் எரியும் வரை மணக்கும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>கல்லுக்கும் முள்ளுக்கும் அஞ்சாதவன், பள்ளநீரைக் கண்டு பதைபதைக்கிறான். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>தாழ்ப்பாள் இல்லாத கதவு, தானாக மூடி திறக்கும் கதவு அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>காலடியில் சுருண்டிருப்பாள்; கணீர் என்று குரலிசைப்பாள். அவள் யார் ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வித்தில்லாமல் விளையும்; வெட்டாமல் சாயும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>அடர்ந்த காட்டின் நடுவே ஒரு பாதை – அது என்ன ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வண்ணப் பட்டுச் சேலைக்காரி, நீல வண்ண ரவிக்கைக் காரி அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அறிவின் மறுபெயர், இரவில் வருவது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>வேகாத வெயிலில் வெள்ளையப்பன் விளைகிறான். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வெட்டிக்கொள்வான் ஆனாலும் ஒட்டிக்கொள்வான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>தலையை சீவினால் தாகம் தீர்ப்பான்.அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஒற்றைக்கால் மனிதனுக்கு ஒன்பது கை. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காவி உடையணியாத கள்ளத்தவசி கரையோரம் கடுந்தவம் செய்கிறான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>உடல் கொண்டு குத்திடுவான்; உதிரிகளை ஒன்றிணைப்பான். அது என்ன</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காலாறும் கப்பற்கால் கண்ணிரண்டும் கீரை விதை. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஓடியாடி வேலை செய்தபின் மூலையில் ஒதுங்கிக்கிடப்பாள் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>கோடையிலே ஆடி வரும் வாடையில முடங்கி விடும் – அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நடைக்கு உவமை, நளனக்கு தூதுவன் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கூட்டுச் சேர்ந்து கோட்டைக் கட்டும்; மாட்டுவோரை மடக்கித் தாக்கும். அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆயிரம் பேர் வந்து சென்றாலும் வந்த சுவடு தெரியாது? அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">வளைஞ்சு நெளிஞ்சு ஆடும் தண்ணீர் குடித்தால் சாகும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>தணித்து உண்ணமுடியாது என்றாலும் இது சேர்த்தால்தான் உணவுக்கு சுவை அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கலர்ப்பூ கொண்டைக்காரி, காலையில் எழுப்பிவிடுவாள். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">சொன்னதைச் சொல்லும் பொண்ணுக்கு, பச்சைப் பாவாடை கேட்குதாம் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>தண்ணீர் இல்லாமல் வளரும்; தரை இல்லாமல் படரும். அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காலில்லாதவன் வளைவான், நெளிவான் காடு மேடெல்லாம் அலைவான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பல அடுக்கு மாளிகையில் இனிப்பு விருந்து. அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">சிவப்பான பெட்டிக்குள் கருகு மணி முத்துக்கள் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காலையிலே கூவும் பட்சி, கந்தன் கொடியில் காணும் பட்சி, குப்பையைக் கிளறும் பட்சி, கொண்டையுடைய பட்சி – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>அடிக்காத பிள்ளை அலறித் துடிக்குது. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஒற்றைக்கால் குள்ளனுக்கு எட்டுக் கை. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காற்று நுழைந்ததும் கானம் பாடுகிறான். அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அனைவரையும் நடுங்க வைப்பான், ஆதவனுக்கே அடங்குவான். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">சுற்றும்போது மட்டும் சுகம் தருவாள். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அடி மலர்ந்து நுனி மலராத பூ – அது என்ன ? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ஆயிரம் தச்சர் கூடி கட்டிய அந்த அழகான மண்டபம் , ஒருவர் கண்பட்டு உடைந்ததாம் அந்த மண்டபம். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பேசாத வரை நான் இருப்பேன். பேசினால் நான் உடைந்துவிடுவேன். நான் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அடித்தால் விலகாது, அணைத்தால் நிற்காது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">நடக்கத் தெரியாதவன், நட்டுவனுக்கு வழி காட்டுகிறான் அவன் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தலையில் கீரீடம் வைத்த தங்கப்பழம் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ராஜா, ராணி உண்டு நாடு அல்ல. இலைகள் பல உண்டு, தாவரம் இல்லை! அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கந்தல் துணிக்காறி முத்துப் பிள்ளைகள் பெற்றாள் அவள் யார்? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>மூன்றெழுத்துப் பெயராகும். முற்றும் வெள்ளை நிறமாகும் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கழுத்து உண்டு, தலையில்லை; உடல் உண்டு, உயிர் இல்லை, கையுண்டு, விரல் இல்லை. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">கோணல் எத்தனை இருந்தாலும் குணமும் குறியும் மாறாது – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>மணல் வெளியில் ஓடுது, தண்ணீர் கேட்காத கப்பல் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>பேசுவான் நடக்கமாட்டான்; பாடுவான் ஆடமாட்டான். அவன் யார் ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">சங்கீதம் பாடும் சல்லாபம் செய்யும் சமயத்தில் ரத்தம் குடிக்கும் – அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>நான்தான் சகலமும். என்னைப் பார்க்க முடியாது, பிடிக்கவும் முடியாது. எனக்கு வாயில்லை, ஆனால் நான் ஓசை எழுப்புவேன். நான் யார் ? காற்று</x:t>
+  </x:si>
+  <x:si>
+    <x:t>கோயிலுக்குப் போனானாம் எங்க தம்பி தீர்த்தம் விட்டானாம் தங்கத் தம்பி – அது என்ன? தேங்காய்”</x:t>
+  </x:si>
+  <x:si>
+    <x:t>முழு உலகமும் சுற்றி வரும், ஆனால் ஒரு மூலையிலேயே இருக்கும் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அண்டமென்ற பெயரும் உண்டு, அடைகாத்தால் குஞ்சுமுண்டு. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஒற்றைக் காலில் ஆடுவான், ஓய்ந்து போனால் படுப்பான். அவன் யார்?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">காலைக்கடிக்கும் செருப்பல்ல, காவல் காக்கும் நாயல்ல அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பிறந்தது முதல் வயிற்றாலே போகிறது. அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஒளி கொடுக்கும், விளக்கு அல்ல; சூடு கொடுக்கும், தீ அல்ல; பளபளக்கும், தங்கம் அல்ல. அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>பொட்டுப்போல் இலை இருக்கும், பொரிபோல் பூப் பூக்கும், தின்னக்காய் காய்க்கும், தின்னாப் பழம் பழுக்கும் அது என்ன?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>என்னைப் பார்க்க முடியும், ஆனால் எனக்கு எடை கிடையாது. என்னை ஒரு பாத்திரத்தில் போட்டால் அதன் அளவை குறைத்திடுவேன். நான் யார் ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">தொட்டு விட்டால் மூடிக் கொள்ளும் பச்சை மாளிகை ஜன்னல்கள் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>ஆகாயத்தில் பறக்கும். அக்கம் பக்கம் போகாது. அது என்ன? கொடி</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">அந்திவரும் நேரம், அவளும் வரும் நேரும் அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">பூமியிலே பிறக்கும், புகையாய்ப் போகும். அது என்ன? </x:t>
+  </x:si>
+  <x:si>
+    <x:t>இரவும் பகலும் ஓய்வு இல்லை, படுத்தால் எழுப்ப ஆள் இல்லை அது என்ன?</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,37 +1332,1724 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1">
+      <x:c r="A2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1">
+      <x:c r="A5" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1">
+      <x:c r="A6" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1">
+      <x:c r="A7" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1">
+      <x:c r="A8" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1">
+      <x:c r="A9" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1">
+      <x:c r="A20" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:1">
+      <x:c r="A22" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:1">
+      <x:c r="A23" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:1">
+      <x:c r="A24" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:1">
+      <x:c r="A25" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:1">
+      <x:c r="A26" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:1">
+      <x:c r="A27" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:1">
+      <x:c r="A28" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:1">
+      <x:c r="A29" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:1">
+      <x:c r="A30" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:1">
+      <x:c r="A31" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:1">
+      <x:c r="A32" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:1">
+      <x:c r="A33" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:1">
+      <x:c r="A34" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:1">
+      <x:c r="A35" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:1">
+      <x:c r="A36" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:1">
+      <x:c r="A37" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:1">
+      <x:c r="A38" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:1">
+      <x:c r="A39" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:1">
+      <x:c r="A40" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:1">
+      <x:c r="A41" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:1">
+      <x:c r="A42" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:1">
+      <x:c r="A43" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:1">
+      <x:c r="A44" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:1">
+      <x:c r="A45" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:1">
+      <x:c r="A46" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:1">
+      <x:c r="A47" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:1">
+      <x:c r="A48" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:1">
+      <x:c r="A49" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:1">
+      <x:c r="A50" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:1">
+      <x:c r="A51" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:1">
+      <x:c r="A52" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:1">
+      <x:c r="A53" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:1">
+      <x:c r="A54" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:1">
+      <x:c r="A55" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:1">
+      <x:c r="A56" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:1">
+      <x:c r="A57" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:1">
+      <x:c r="A58" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:1">
+      <x:c r="A59" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:1">
+      <x:c r="A60" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:1">
+      <x:c r="A61" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:1">
+      <x:c r="A62" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:1">
+      <x:c r="A63" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:1">
+      <x:c r="A64" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:1">
+      <x:c r="A65" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:1">
+      <x:c r="A66" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:1">
+      <x:c r="A67" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:1">
+      <x:c r="A68" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:1">
+      <x:c r="A69" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:1">
+      <x:c r="A70" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:1">
+      <x:c r="A71" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:1">
+      <x:c r="A72" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:1">
+      <x:c r="A73" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:1">
+      <x:c r="A74" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:1">
+      <x:c r="A75" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:1">
+      <x:c r="A76" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:1">
+      <x:c r="A77" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:1">
+      <x:c r="A78" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:1">
+      <x:c r="A79" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:1">
+      <x:c r="A80" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:1">
+      <x:c r="A81" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:1">
+      <x:c r="A82" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:1">
+      <x:c r="A83" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:1">
+      <x:c r="A84" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:1">
+      <x:c r="A85" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:1">
+      <x:c r="A86" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:1">
+      <x:c r="A87" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:1">
+      <x:c r="A88" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:1">
+      <x:c r="A89" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:1">
+      <x:c r="A90" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:1">
+      <x:c r="A91" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:1">
+      <x:c r="A92" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:1">
+      <x:c r="A93" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:1">
+      <x:c r="A94" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:1">
+      <x:c r="A95" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:1">
+      <x:c r="A96" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:1">
+      <x:c r="A97" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:1">
+      <x:c r="A98" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:1">
+      <x:c r="A99" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:1">
+      <x:c r="A100" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:1">
+      <x:c r="A101" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:1">
+      <x:c r="A102" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:1">
+      <x:c r="A103" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:1">
+      <x:c r="A104" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:1">
+      <x:c r="A105" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:1">
+      <x:c r="A106" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:1">
+      <x:c r="A107" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:1">
+      <x:c r="A108" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:1">
+      <x:c r="A109" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:1">
+      <x:c r="A110" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:1">
+      <x:c r="A111" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:1">
+      <x:c r="A112" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:1">
+      <x:c r="A113" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:1">
+      <x:c r="A114" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:1">
+      <x:c r="A115" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:1">
+      <x:c r="A116" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:1">
+      <x:c r="A117" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:1">
+      <x:c r="A118" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:1">
+      <x:c r="A119" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:1">
+      <x:c r="A120" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:1">
+      <x:c r="A121" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:1">
+      <x:c r="A122" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:1">
+      <x:c r="A123" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:1">
+      <x:c r="A124" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:1">
+      <x:c r="A125" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:1">
+      <x:c r="A126" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:1">
+      <x:c r="A127" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:1">
+      <x:c r="A128" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:1">
+      <x:c r="A129" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:1">
+      <x:c r="A130" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:1">
+      <x:c r="A131" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:1">
+      <x:c r="A132" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:1">
+      <x:c r="A133" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:1">
+      <x:c r="A134" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:1">
+      <x:c r="A135" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:1">
+      <x:c r="A136" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:1">
+      <x:c r="A137" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:1">
+      <x:c r="A138" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:1">
+      <x:c r="A139" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:1">
+      <x:c r="A140" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:1">
+      <x:c r="A141" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:1">
+      <x:c r="A142" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:1">
+      <x:c r="A143" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:1">
+      <x:c r="A144" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:1">
+      <x:c r="A145" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:1">
+      <x:c r="A146" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:1">
+      <x:c r="A147" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:1">
+      <x:c r="A148" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:1">
+      <x:c r="A149" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:1">
+      <x:c r="A150" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:1">
+      <x:c r="A151" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:1">
+      <x:c r="A152" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:1">
+      <x:c r="A153" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:1">
+      <x:c r="A154" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:1">
+      <x:c r="A155" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:1">
+      <x:c r="A156" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:1">
+      <x:c r="A157" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:1">
+      <x:c r="A158" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:1">
+      <x:c r="A159" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:1">
+      <x:c r="A160" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:1">
+      <x:c r="A161" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:1">
+      <x:c r="A162" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:1">
+      <x:c r="A163" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:1">
+      <x:c r="A164" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:1">
+      <x:c r="A165" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:1">
+      <x:c r="A166" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:1">
+      <x:c r="A167" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:1">
+      <x:c r="A168" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:1">
+      <x:c r="A169" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:1">
+      <x:c r="A170" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:1">
+      <x:c r="A171" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:1">
+      <x:c r="A172" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:1">
+      <x:c r="A173" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:1">
+      <x:c r="A174" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:1">
+      <x:c r="A175" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:1">
+      <x:c r="A176" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:1">
+      <x:c r="A177" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:1">
+      <x:c r="A178" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:1">
+      <x:c r="A179" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:1">
+      <x:c r="A180" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:1">
+      <x:c r="A181" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:1">
+      <x:c r="A182" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:1">
+      <x:c r="A183" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:1">
+      <x:c r="A184" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:1">
+      <x:c r="A185" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:1">
+      <x:c r="A186" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:1">
+      <x:c r="A187" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:1">
+      <x:c r="A188" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:1">
+      <x:c r="A189" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:1">
+      <x:c r="A190" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:1">
+      <x:c r="A191" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:1">
+      <x:c r="A192" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:1">
+      <x:c r="A193" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:1">
+      <x:c r="A194" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:1">
+      <x:c r="A195" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:1">
+      <x:c r="A196" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:1">
+      <x:c r="A197" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:1">
+      <x:c r="A198" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:1">
+      <x:c r="A199" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:1">
+      <x:c r="A200" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:1">
+      <x:c r="A201" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:1">
+      <x:c r="A202" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:1">
+      <x:c r="A203" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:1">
+      <x:c r="A204" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:1">
+      <x:c r="A205" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:1">
+      <x:c r="A206" s="1" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:1">
+      <x:c r="A207" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:1">
+      <x:c r="A208" s="1" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:1">
+      <x:c r="A209" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:1">
+      <x:c r="A210" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:1">
+      <x:c r="A211" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:1">
+      <x:c r="A212" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:1">
+      <x:c r="A213" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:1">
+      <x:c r="A214" s="1" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:1">
+      <x:c r="A215" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:1">
+      <x:c r="A216" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:1">
+      <x:c r="A217" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:1">
+      <x:c r="A218" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" spans="1:1">
+      <x:c r="A219" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:1">
+      <x:c r="A220" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" spans="1:1">
+      <x:c r="A221" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="1:1">
+      <x:c r="A222" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="1:1">
+      <x:c r="A223" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="1:1">
+      <x:c r="A224" s="1" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="1:1">
+      <x:c r="A225" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="1:1">
+      <x:c r="A226" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="1:1">
+      <x:c r="A227" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="1:1">
+      <x:c r="A228" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="1:1">
+      <x:c r="A229" s="1" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" spans="1:1">
+      <x:c r="A230" s="1" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" spans="1:1">
+      <x:c r="A231" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" spans="1:1">
+      <x:c r="A232" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" spans="1:1">
+      <x:c r="A233" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:1">
+      <x:c r="A234" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" spans="1:1">
+      <x:c r="A235" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" spans="1:1">
+      <x:c r="A236" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" spans="1:1">
+      <x:c r="A237" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" spans="1:1">
+      <x:c r="A238" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" spans="1:1">
+      <x:c r="A239" s="1" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" spans="1:1">
+      <x:c r="A240" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" spans="1:1">
+      <x:c r="A241" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" spans="1:1">
+      <x:c r="A242" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243" spans="1:1">
+      <x:c r="A243" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" spans="1:1">
+      <x:c r="A244" s="1" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245" spans="1:1">
+      <x:c r="A245" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246" spans="1:1">
+      <x:c r="A246" s="1" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="247" spans="1:1">
+      <x:c r="A247" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="248" spans="1:1">
+      <x:c r="A248" s="1" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249" spans="1:1">
+      <x:c r="A249" s="1" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250" spans="1:1">
+      <x:c r="A250" s="1" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251" spans="1:1">
+      <x:c r="A251" s="1" t="s">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252" spans="1:1">
+      <x:c r="A252" s="1" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:1">
+      <x:c r="A253" s="1" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:1">
+      <x:c r="A254" s="1" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:1">
+      <x:c r="A255" s="1" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:1">
+      <x:c r="A256" s="1" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:1">
+      <x:c r="A257" s="1" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:1">
+      <x:c r="A258" s="1" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:1">
+      <x:c r="A259" s="1" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:1">
+      <x:c r="A260" s="1" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261" spans="1:1">
+      <x:c r="A261" s="1" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262" spans="1:1">
+      <x:c r="A262" s="1" t="s">
+        <x:v>251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:1">
+      <x:c r="A263" s="1" t="s">
+        <x:v>252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264" spans="1:1">
+      <x:c r="A264" s="1" t="s">
+        <x:v>253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265" spans="1:1">
+      <x:c r="A265" s="1" t="s">
+        <x:v>254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266" spans="1:1">
+      <x:c r="A266" s="1" t="s">
+        <x:v>255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267" spans="1:1">
+      <x:c r="A267" s="1" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268" spans="1:1">
+      <x:c r="A268" s="1" t="s">
+        <x:v>257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269" spans="1:1">
+      <x:c r="A269" s="1" t="s">
+        <x:v>258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270" spans="1:1">
+      <x:c r="A270" s="1" t="s">
+        <x:v>259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:1">
+      <x:c r="A271" s="1" t="s">
+        <x:v>260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272" spans="1:1">
+      <x:c r="A272" s="1" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273" spans="1:1">
+      <x:c r="A273" s="1" t="s">
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:1">
+      <x:c r="A274" s="1" t="s">
+        <x:v>263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:1">
+      <x:c r="A275" s="1" t="s">
+        <x:v>264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276" spans="1:1">
+      <x:c r="A276" s="1" t="s">
+        <x:v>265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277" spans="1:1">
+      <x:c r="A277" s="1" t="s">
+        <x:v>266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:1">
+      <x:c r="A278" s="1" t="s">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="279" spans="1:1">
+      <x:c r="A279" s="1" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="280" spans="1:1">
+      <x:c r="A280" s="1" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281" spans="1:1">
+      <x:c r="A281" s="1" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="282" spans="1:1">
+      <x:c r="A282" s="1" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="283" spans="1:1">
+      <x:c r="A283" s="1" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="284" spans="1:1">
+      <x:c r="A284" s="1" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="285" spans="1:1">
+      <x:c r="A285" s="1" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="286" spans="1:1">
+      <x:c r="A286" s="1" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="287" spans="1:1">
+      <x:c r="A287" s="1" t="s">
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288" spans="1:1">
+      <x:c r="A288" s="1" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="289" spans="1:1">
+      <x:c r="A289" s="1" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="290" spans="1:1">
+      <x:c r="A290" s="1" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291" spans="1:1">
+      <x:c r="A291" s="1" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292" spans="1:1">
+      <x:c r="A292" s="1" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="293" spans="1:1">
+      <x:c r="A293" s="1" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294" spans="1:1">
+      <x:c r="A294" s="1" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:1">
+      <x:c r="A295" s="1" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296" spans="1:1">
+      <x:c r="A296" s="1" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="297" spans="1:1">
+      <x:c r="A297" s="1" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="298" spans="1:1">
+      <x:c r="A298" s="1" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299" spans="1:1">
+      <x:c r="A299" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="300" spans="1:1">
+      <x:c r="A300" s="1" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="301" spans="1:1">
+      <x:c r="A301" s="1" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302" spans="1:1">
+      <x:c r="A302" s="1" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="303" spans="1:1">
+      <x:c r="A303" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="304" spans="1:1">
+      <x:c r="A304" s="1" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="305" spans="1:1">
+      <x:c r="A305" s="1" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="306" spans="1:1">
+      <x:c r="A306" s="1" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="307" spans="1:1">
+      <x:c r="A307" s="1" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="308" spans="1:1">
+      <x:c r="A308" s="1" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="309" spans="1:1">
+      <x:c r="A309" s="1" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="310" spans="1:1">
+      <x:c r="A310" s="1" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="311" spans="1:1">
+      <x:c r="A311" s="1" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="312" spans="1:1">
+      <x:c r="A312" s="1" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="313" spans="1:1">
+      <x:c r="A313" s="1" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="314" spans="1:1">
+      <x:c r="A314" s="1" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="315" spans="1:1">
+      <x:c r="A315" s="1" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="316" spans="1:1">
+      <x:c r="A316" s="1" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="317" spans="1:1">
+      <x:c r="A317" s="1" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="318" spans="1:1">
+      <x:c r="A318" s="1" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="319" spans="1:1">
+      <x:c r="A319" s="1" t="s">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="320" spans="1:1">
+      <x:c r="A320" s="1" t="s">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="321" spans="1:1">
+      <x:c r="A321" s="1" t="s">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322" spans="1:1">
+      <x:c r="A322" s="1" t="s">
+        <x:v>311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="323" spans="1:1">
+      <x:c r="A323" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="324" spans="1:1">
+      <x:c r="A324" s="1" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="325" spans="1:1">
+      <x:c r="A325" s="1" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:1">
+      <x:c r="A326" s="1" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327" spans="1:1">
+      <x:c r="A327" s="1" t="s">
+        <x:v>316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="328" spans="1:1">
+      <x:c r="A328" s="1" t="s">
+        <x:v>317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="329" spans="1:1">
+      <x:c r="A329" s="1" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330" spans="1:1">
+      <x:c r="A330" s="1" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331" spans="1:1">
+      <x:c r="A331" s="1" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:1">
+      <x:c r="A332" s="1" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333" spans="1:1">
+      <x:c r="A333" s="1" t="s">
+        <x:v>322</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>